--- a/New folder/customers_functions_description.xlsx
+++ b/New folder/customers_functions_description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\javaStore24gl\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1962148F-E978-48E5-B3AD-EEDE09284619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6326E997-8A58-4D97-B96D-F9D825B17DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="150">
   <si>
     <t>Название функции</t>
   </si>
@@ -321,14 +321,734 @@
     <t xml:space="preserve">Обработка ошибок присутствует </t>
   </si>
   <si>
-    <t xml:space="preserve">Пришлось добавить 3 параметра в функцию  buildQuery(String colName, String operator, String value) </t>
+    <t>PRIVATE FUNCTION toListItem(i)
+    DEFINE i INT
+    LET t2[i].text =
+        customer.customer_num USING "-&lt;&lt;&lt;&lt;&lt;", " ",
+        customer.lname CLIPPED, " ", customer.fname
+    LET t2[i].detailText =
+        customer.company CLIPPED, ", ", customer.city
+END FUNCTION</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>Имя функции</t>
+  </si>
+  <si>
+    <t>Принимаемый параметр (и его тип)</t>
+  </si>
+  <si>
+    <t>orders_by_customer</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>Нет параметров</t>
+  </si>
+  <si>
+    <t>show_orders</t>
+  </si>
+  <si>
+    <t>order_to_t2</t>
+  </si>
+  <si>
+    <t>close_orders</t>
+  </si>
+  <si>
+    <t>d_orders</t>
+  </si>
+  <si>
+    <t>d_order</t>
+  </si>
+  <si>
+    <t>Диалоговое окно для управления отдельным заказом. Показывает детали заказа, количество товаров и предоставляет доступ к связанным операциям (например, отображение товаров или клиента).</t>
+  </si>
+  <si>
+    <t>count_items</t>
+  </si>
+  <si>
+    <r>
+      <t>order_num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (тип как у </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>orders.order_num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>show_items</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Отображает товары, связанные с текущим заказом, в диалоговом окне </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>d_items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>d_items</t>
+  </si>
+  <si>
+    <t>Диалоговое окно для отображения списка товаров, связанных с заказом. Позволяет обновить или отменить диалог.</t>
+  </si>
+  <si>
+    <t>fetch_items</t>
+  </si>
+  <si>
+    <r>
+      <t>Выполняет SQL-запрос для получения всех товаров, связанных с указанным заказом (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>order_num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">). Результаты сохраняются в массиве </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и отображаются в формате </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>items_t3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>show_item</t>
+  </si>
+  <si>
+    <r>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (RECORD как у </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>items.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Отображает детали отдельного товара и связанные с ним данные из таблицы </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>stock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> в диалоговом окне </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>d_item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>d_item</t>
+  </si>
+  <si>
+    <t>Диалоговое окно для отображения деталей отдельного товара. Позволяет отобразить данные по связанному складу или отменить диалог.</t>
+  </si>
+  <si>
+    <t>show_stock</t>
+  </si>
+  <si>
+    <r>
+      <t>stock_num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (тип как у </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>stock.stock_num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>manu_code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (тип как у </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>stock.manu_code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Отображает детали склада, связанного с указанным </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>stock_num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>manu_code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, в диалоговом окне </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>d_stock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>d_stock</t>
+  </si>
+  <si>
+    <t>Диалоговое окно для отображения деталей склада. Позволяет отменить диалог или закрыть окно заказов.</t>
+  </si>
+  <si>
+    <t>Вызывает функцию show_orders без условий фильтрации для отображения всех заказов.</t>
+  </si>
+  <si>
+    <t>customer_num (тип как у customer.customer_num)</t>
+  </si>
+  <si>
+    <t>Вызывает функцию show_orders с условием фильтрации заказов по номеру клиента (customer_num).</t>
+  </si>
+  <si>
+    <t>работает через html &lt;!-- Group 4 --&gt;
+    &lt;div class="group"&gt;
+        &lt;h3&gt;Orders&lt;/h3&gt;
+        &lt;label&gt;Orders&lt;/label&gt;
+        &lt;button type="button" id="orders"
+                th:text="|Show Orders: ${count}|"
+                th:disabled="${count == 0}"
+                th:onclick="${count &gt; 0} ? 'window.location.href=\'/orders?condition=' + ${customer_num}' : ''"&gt;
+            Show Orders
+        &lt;/button&gt;
+    &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>q (STRING)</t>
+  </si>
+  <si>
+    <t>Выполняет SQL-запрос для получения заказов с учетом переданного условия q. Результаты сохраняются в массиве orders. Отображает список заказов в окне w_orders и данные выбранного заказа в окне w_order.</t>
+  </si>
+  <si>
+    <t>n (INT)</t>
+  </si>
+  <si>
+    <t>Преобразует данные заказа в формате, удобном для отображения в списке (orders_t2).</t>
+  </si>
+  <si>
+    <t>Закрывает диалог и окна, связанные с заказами (w_orders и w_order).</t>
+  </si>
+  <si>
+    <t>Диалоговое окно для отображения списка заказов (orders_t2). При выборе строки отображает детали заказа в правом окне (w_order).</t>
+  </si>
+  <si>
+    <t>order_num (тип как у orders.order_num)</t>
+  </si>
+  <si>
+    <t>Выполняет SQL-запрос для подсчета количества товаров, связанных с указанным заказом (order_num). Возвращает количество товаров.</t>
+  </si>
+  <si>
+    <t>КНОПКА ПЕРЕХОДА НА СТРАНИЦУ CUSTOMERS</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>item_to_t3</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">преобразовывает к T3 item для отображения </t>
+  </si>
+  <si>
+    <t xml:space="preserve">отображаю на html странице. Преобраз-овывать ничего не нужно </t>
+  </si>
+  <si>
+    <t>mkstores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тут создаётся локальная бд . У нас есть своё подключение. Это не нужно. </t>
+  </si>
+  <si>
+    <t>stocks</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Принимаемый параметр</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>RECORD LIKE stock.*</t>
+  </si>
+  <si>
+    <t>DYNAMIC ARRAY OF RECORD LIKE stock.*</t>
+  </si>
+  <si>
+    <t>stocks_t2</t>
+  </si>
+  <si>
+    <t>DYNAMIC ARRAY OF RECORD text, detailText STRING END RECORD</t>
+  </si>
+  <si>
+    <t>fetch_stock</t>
+  </si>
+  <si>
+    <t>d_stocks</t>
+  </si>
+  <si>
+    <t>close_stocks</t>
+  </si>
+  <si>
+    <t>Переменная stock представляет собой запись, содержащую все поля из таблицы stock схемы stores. Используется для хранения текущего выбранного товара.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">это соответствует модели Stock </t>
+  </si>
+  <si>
+    <t>Массив stocks представляет собой динамический массив записей, каждая из которых содержит поля из таблицы stock. Используется для хранения всех товаров, извлеченных из базы данных.</t>
+  </si>
+  <si>
+    <t>Массив stocks_t2 представляет собой динамический массив записей, каждая из которых содержит текстовые поля text и detailText. Используется для хранения отформатированных текстовых данных, отображаемых в интерфейсе пользователя.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в этих 2х функциях нет необходимости. Объекты передаются на html страницу </t>
+  </si>
+  <si>
+    <t>Функция fetch_stock извлекает все записи из таблицы stock в базе данных и заполняет массивы stocks и stocks_t2 соответствующими данными.</t>
+  </si>
+  <si>
+    <t>Процедура d_stocks реализует диалог для отображения списка товаров в интерфейсе пользователя. Пользователь может выбрать товар для отображения его подробной информации.</t>
+  </si>
+  <si>
+    <t>это -- моя html странице stocks</t>
+  </si>
+  <si>
+    <t>Функция close_stocks закрывает окно с таблицей товаров и завершает соответствующие диалоги.</t>
+  </si>
+  <si>
+    <t>Процедура d_stock реализует меню для управления текущим выбранным товаром, например, добавления его в корзину.</t>
+  </si>
+  <si>
+    <t>Основная функция stocks открывает окна для отображения списка товаров и подробной информации о выбранном товаре, а также запускает диалоги для взаимодействия с пользователем.</t>
+  </si>
+  <si>
+    <t>basket</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>basket()</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Открывает окно корзины (w_basket) и окно для редактирования элементов корзины (w_basket_item). Если окно корзины уже открыто, просто активирует его. Запускает диалог </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>d_basket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>d_basket()</t>
+  </si>
+  <si>
+    <r>
+      <t>Диалог корзины. Отображает массив элементов корзины (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>items_t3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) и обновляет общую сумму. Позволяет изменять и удалять элементы корзины. При изменении элемента запускает диалог редактирования </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>d_basket_item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>d_basket_item()</t>
+  </si>
+  <si>
+    <t>Диалог редактирования элемента корзины. Позволяет вводить количество товара. При изменении количества пересчитывает общую цену элемента и обновляет ее в массиве элементов корзины.</t>
+  </si>
+  <si>
+    <t>display_total()</t>
+  </si>
+  <si>
+    <t>Вычисляет и отображает общую стоимость всех элементов в корзине.</t>
+  </si>
+  <si>
+    <t>add_to_basket(stock)</t>
+  </si>
+  <si>
+    <r>
+      <t>stock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (RECORD LIKE stock.*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Добавляет новый товар в корзину. Создает новый элемент в массиве </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, заполняет его данными из переданного объекта </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>stock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и обновляет отображение корзины. Если окно корзины уже открыто, перезапускает диалог.</t>
+    </r>
+  </si>
+  <si>
+    <t>delete_item(item_num)</t>
+  </si>
+  <si>
+    <r>
+      <t>item_num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (INT)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Удаляет элемент из корзины по номеру </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>item_num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Пересчитывает номера оставшихся элементов и обновляет отображение корзины.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,8 +1130,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,8 +1171,13 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -475,15 +1213,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -491,9 +1245,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -523,22 +1274,53 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="4" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="5" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="5" builtinId="22"/>
     <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
@@ -844,10 +1626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -855,10 +1637,10 @@
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
     <col min="3" max="3" width="57.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="4" max="4" width="80.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -869,272 +1651,722 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="54" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" ht="54" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="54" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" ht="54" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="54" customHeight="1">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:6" ht="54" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="54" customHeight="1">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:6" ht="54" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="54" customHeight="1">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:6" ht="54" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="54" customHeight="1">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:6" ht="54" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="54" customHeight="1">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:6" ht="54" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="54" customHeight="1">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:6" ht="54" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="54" customHeight="1">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:6" ht="54" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="54" customHeight="1">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:6" ht="54" customHeight="1">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="54" customHeight="1">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:6" ht="54" customHeight="1" thickBot="1">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="54" customHeight="1">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:6" ht="54" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="54" customHeight="1" thickBot="1">
-      <c r="A14" s="4" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="54" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D14" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="54" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="17" t="s">
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" ht="54" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:4" ht="54" customHeight="1" thickTop="1">
-      <c r="A16" s="3" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" ht="151.5" customHeight="1" thickTop="1">
+      <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="54" customHeight="1">
-      <c r="A17" s="9" t="s">
+      <c r="D16" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="54" customHeight="1">
+      <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="54" customHeight="1">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:5" ht="54" customHeight="1">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="54" customHeight="1">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:5" ht="54" customHeight="1">
+      <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="92.25">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:5" ht="92.25">
+      <c r="A24" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-    </row>
-    <row r="25" spans="1:4" ht="60">
-      <c r="A25" s="13" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+    </row>
+    <row r="25" spans="1:5" ht="60">
+      <c r="A25" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" spans="1:4" ht="60">
-      <c r="A26" s="11" t="s">
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" ht="60">
+      <c r="A26" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="45">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:5" ht="45">
+      <c r="A27" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="14"/>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:5" ht="92.25">
+      <c r="A28" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+    </row>
+    <row r="29" spans="1:5" ht="30">
+      <c r="A29" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="180">
+      <c r="A30" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" ht="30">
+      <c r="A31" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" ht="60">
+      <c r="A32" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:4" ht="30">
+      <c r="A33" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30">
+      <c r="A34" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="45">
+      <c r="A35" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="1:4" ht="60.75" thickBot="1">
+      <c r="A36" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" spans="1:4" ht="46.5" thickTop="1" thickBot="1">
+      <c r="A37" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30.75" thickTop="1">
+      <c r="A38" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="45">
+      <c r="A39" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="60">
+      <c r="A40" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30">
+      <c r="A41" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="45">
+      <c r="A42" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="60">
+      <c r="A43" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30">
+      <c r="A44" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30">
+      <c r="A45" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+    </row>
+    <row r="46" spans="1:4" ht="92.25">
+      <c r="A46" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="92.25">
+      <c r="A48" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+    </row>
+    <row r="53" spans="1:4" ht="92.25">
+      <c r="A53" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+    </row>
+    <row r="54" spans="1:4" ht="30">
+      <c r="A54" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="45">
+      <c r="A55" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="60">
+      <c r="A56" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="75">
+      <c r="A57" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="24"/>
+    </row>
+    <row r="58" spans="1:4" ht="45">
+      <c r="A58" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="24"/>
+    </row>
+    <row r="59" spans="1:4" ht="60">
+      <c r="A59" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="30">
+      <c r="A60" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" s="25"/>
+    </row>
+    <row r="61" spans="1:4" s="27" customFormat="1" ht="45.75" thickBot="1">
+      <c r="A61" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="61.5" thickTop="1" thickBot="1">
+      <c r="A62" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="93" thickTop="1">
+      <c r="A63" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+    </row>
+    <row r="64" spans="1:4" ht="30">
+      <c r="A64" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="60">
+      <c r="A65" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="60">
+      <c r="A66" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="60">
+      <c r="A67" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="30">
+      <c r="A68" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="60">
+      <c r="A69" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="45">
+      <c r="A70" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="9">
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="D59:D60"/>
     <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
